--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value534.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value534.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.13075435774239</v>
+        <v>2.095077037811279</v>
       </c>
       <c r="B1">
-        <v>1.411041212247979</v>
+        <v>2.726522207260132</v>
       </c>
       <c r="C1">
-        <v>1.386365653584228</v>
+        <v>2.864420413970947</v>
       </c>
       <c r="D1">
-        <v>1.620780950687789</v>
+        <v>2.862509250640869</v>
       </c>
       <c r="E1">
-        <v>2.188611625346566</v>
+        <v>0.7830931544303894</v>
       </c>
     </row>
   </sheetData>
